--- a/model-inputs/forecasts.xlsx
+++ b/model-inputs/forecasts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837DE5D1-F9C5-43A0-8251-67A51A6EE41F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BBDE10-B77A-495D-B3B8-5901637F7207}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="383">
   <si>
     <t>gdp</t>
   </si>
@@ -1074,9 +1074,6 @@
     <t>thousands</t>
   </si>
   <si>
-    <t>mnodg</t>
-  </si>
-  <si>
     <t>DGORDER</t>
   </si>
   <si>
@@ -1150,6 +1147,45 @@
   </si>
   <si>
     <t>CIVPART</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>Retail &amp; Food Sales (Advanced Estimate)</t>
+  </si>
+  <si>
+    <t>MRTSSM44X72USS</t>
+  </si>
+  <si>
+    <t>Industrial Production Index</t>
+  </si>
+  <si>
+    <t>New Business Applications</t>
+  </si>
+  <si>
+    <t>newbusiness</t>
+  </si>
+  <si>
+    <t>BABATOTALSAUS</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>mfgorders</t>
+  </si>
+  <si>
+    <t>mfgshipments</t>
+  </si>
+  <si>
+    <t>Manufacturers Value of Shipments: Total Manufacturing</t>
+  </si>
+  <si>
+    <t>AMTMVS</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1253,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="44">
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1241,6 +1282,34 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1791,45 +1860,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N98" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="A1:N98" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N100" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:N100" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="34"/>
-    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="27"/>
-    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="39"/>
+    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:M88" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:M88" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:M88" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="stat" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="disp" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="disp2" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{790E276A-478E-4C37-8E23-268EBECBD586}" name="dfminput" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{D4ABD328-708F-41CD-A15C-D1F52F9E510D}" name="nowcast" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="stat" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="disp" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="disp2" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{790E276A-478E-4C37-8E23-268EBECBD586}" name="dfminput" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{D4ABD328-708F-41CD-A15C-D1F52F9E510D}" name="nowcast" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2132,10 +2201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE13241-3AD3-4AF9-83CF-1259D998F1D6}">
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4490,10 +4559,10 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>351</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>352</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>182</v>
@@ -4505,7 +4574,7 @@
         <v>178</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>344</v>
@@ -4534,10 +4603,10 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>337</v>
@@ -4549,7 +4618,7 @@
         <v>178</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>339</v>
@@ -4578,10 +4647,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>337</v>
@@ -4593,10 +4662,10 @@
         <v>178</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>44</v>
@@ -4622,10 +4691,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>337</v>
@@ -4637,10 +4706,10 @@
         <v>178</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>44</v>
@@ -4666,13 +4735,13 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>16</v>
+        <v>335</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>75</v>
+        <v>336</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>183</v>
+        <v>337</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>311</v>
@@ -4681,10 +4750,10 @@
         <v>178</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>42</v>
+        <v>338</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>105</v>
+        <v>339</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>44</v>
@@ -4693,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K58" s="6" t="s">
         <v>30</v>
@@ -4705,15 +4774,15 @@
         <v>1</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>183</v>
@@ -4725,7 +4794,7 @@
         <v>178</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>105</v>
@@ -4746,7 +4815,7 @@
         <v>311</v>
       </c>
       <c r="M59" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" s="6" t="s">
         <v>190</v>
@@ -4754,10 +4823,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>183</v>
@@ -4769,7 +4838,7 @@
         <v>178</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>105</v>
@@ -4790,7 +4859,7 @@
         <v>311</v>
       </c>
       <c r="M60" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60" s="6" t="s">
         <v>190</v>
@@ -4798,10 +4867,10 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>183</v>
@@ -4813,7 +4882,7 @@
         <v>178</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>105</v>
@@ -4834,7 +4903,7 @@
         <v>311</v>
       </c>
       <c r="M61" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" s="6" t="s">
         <v>190</v>
@@ -4842,10 +4911,10 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>183</v>
@@ -4857,7 +4926,7 @@
         <v>178</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>105</v>
@@ -4886,10 +4955,10 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>183</v>
@@ -4901,7 +4970,7 @@
         <v>178</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>105</v>
@@ -4930,10 +4999,10 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>183</v>
@@ -4945,7 +5014,7 @@
         <v>178</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>105</v>
@@ -4966,7 +5035,7 @@
         <v>311</v>
       </c>
       <c r="M64" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" s="6" t="s">
         <v>190</v>
@@ -4974,10 +5043,10 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>183</v>
@@ -4989,7 +5058,7 @@
         <v>178</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>105</v>
@@ -5010,7 +5079,7 @@
         <v>311</v>
       </c>
       <c r="M65" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" s="6" t="s">
         <v>190</v>
@@ -5018,10 +5087,10 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>183</v>
@@ -5033,7 +5102,7 @@
         <v>178</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>105</v>
@@ -5062,10 +5131,10 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>183</v>
@@ -5077,7 +5146,7 @@
         <v>178</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>105</v>
@@ -5106,10 +5175,10 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>183</v>
@@ -5121,7 +5190,7 @@
         <v>178</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>105</v>
@@ -5150,10 +5219,10 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>183</v>
@@ -5165,7 +5234,7 @@
         <v>178</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>105</v>
@@ -5194,13 +5263,13 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>311</v>
@@ -5209,10 +5278,10 @@
         <v>178</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>44</v>
@@ -5230,21 +5299,21 @@
         <v>311</v>
       </c>
       <c r="M70" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>332</v>
+        <v>87</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>311</v>
@@ -5253,10 +5322,10 @@
         <v>178</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>44</v>
@@ -5265,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K71" s="6" t="s">
         <v>30</v>
@@ -5282,10 +5351,10 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>278</v>
@@ -5297,10 +5366,10 @@
         <v>178</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>333</v>
+        <v>50</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>334</v>
+        <v>105</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>44</v>
@@ -5309,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>29</v>
+        <v>370</v>
       </c>
       <c r="K72" s="6" t="s">
         <v>30</v>
@@ -5318,7 +5387,7 @@
         <v>311</v>
       </c>
       <c r="M72" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" s="6" t="s">
         <v>170</v>
@@ -5326,10 +5395,10 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>278</v>
@@ -5341,10 +5410,10 @@
         <v>178</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>44</v>
@@ -5370,10 +5439,10 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>278</v>
@@ -5385,7 +5454,7 @@
         <v>178</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>344</v>
@@ -5397,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K74" s="6" t="s">
         <v>30</v>
@@ -5414,13 +5483,13 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>51</v>
+        <v>357</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>89</v>
+        <v>358</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>181</v>
+        <v>278</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>311</v>
@@ -5429,10 +5498,10 @@
         <v>178</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>52</v>
+        <v>359</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>110</v>
+        <v>344</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>44</v>
@@ -5546,10 +5615,10 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>362</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>261</v>
@@ -5561,10 +5630,10 @@
         <v>178</v>
       </c>
       <c r="F78" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>44</v>
@@ -5857,7 +5926,7 @@
         <v>68</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>108</v>
+        <v>372</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>184</v>
@@ -5898,13 +5967,13 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>69</v>
+        <v>371</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>311</v>
@@ -5913,10 +5982,10 @@
         <v>178</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>70</v>
+        <v>373</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>44</v>
@@ -5925,10 +5994,10 @@
         <v>0</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="L86" s="6" t="s">
         <v>311</v>
@@ -5942,13 +6011,13 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>311</v>
@@ -5957,10 +6026,10 @@
         <v>178</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>44</v>
@@ -5986,13 +6055,13 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>254</v>
+        <v>96</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>311</v>
@@ -6001,10 +6070,10 @@
         <v>178</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>44</v>
@@ -6013,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="L88" s="6" t="s">
         <v>311</v>
@@ -6030,13 +6099,13 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>112</v>
+        <v>254</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>114</v>
+        <v>374</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>311</v>
@@ -6045,10 +6114,10 @@
         <v>178</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>44</v>
@@ -6074,13 +6143,13 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>255</v>
+        <v>112</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>311</v>
@@ -6089,39 +6158,39 @@
         <v>178</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>262</v>
+        <v>113</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I90" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="L90" s="6" t="s">
         <v>311</v>
       </c>
       <c r="M90" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>261</v>
@@ -6133,7 +6202,7 @@
         <v>178</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>105</v>
@@ -6162,10 +6231,10 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>261</v>
@@ -6177,7 +6246,7 @@
         <v>178</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>105</v>
@@ -6206,13 +6275,13 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>311</v>
@@ -6221,13 +6290,13 @@
         <v>178</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I93" s="6" t="b">
         <v>0</v>
@@ -6242,18 +6311,18 @@
         <v>311</v>
       </c>
       <c r="M93" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>265</v>
@@ -6265,7 +6334,7 @@
         <v>178</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>110</v>
@@ -6294,10 +6363,10 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>265</v>
@@ -6309,7 +6378,7 @@
         <v>178</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>324</v>
+        <v>270</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>110</v>
@@ -6338,13 +6407,13 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>181</v>
+        <v>265</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>311</v>
@@ -6353,7 +6422,7 @@
         <v>178</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>110</v>
@@ -6382,13 +6451,13 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>365</v>
+        <v>276</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>366</v>
+        <v>277</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>311</v>
@@ -6397,10 +6466,10 @@
         <v>178</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>44</v>
@@ -6426,13 +6495,13 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>278</v>
+        <v>183</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>311</v>
@@ -6441,7 +6510,7 @@
         <v>178</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>105</v>
@@ -6468,19 +6537,110 @@
         <v>170</v>
       </c>
     </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I99" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M99" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I100" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M100" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="N2:N98">
-    <cfRule type="expression" dxfId="7" priority="3">
+  <conditionalFormatting sqref="N2:N100">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>$M2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M98">
-    <cfRule type="expression" dxfId="6" priority="2">
+  <conditionalFormatting sqref="M2:M100">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$H2 = "q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9657,17 +9817,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M2:M88">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$L2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L88">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$G2 = "q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model-inputs/forecasts.xlsx
+++ b/model-inputs/forecasts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BBDE10-B77A-495D-B3B8-5901637F7207}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3856CB-1AE3-49C2-BCD0-7047CCE9AA2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="382">
   <si>
     <t>gdp</t>
   </si>
@@ -1147,9 +1147,6 @@
   </si>
   <si>
     <t>CIVPART</t>
-  </si>
-  <si>
-    <t>log</t>
   </si>
   <si>
     <t>sales</t>
@@ -1253,92 +1250,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="38">
     <dxf>
       <font>
         <b val="0"/>
@@ -1582,6 +1494,25 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1846,6 +1777,32 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1860,45 +1817,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N100" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N100" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:N100" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="39"/>
-    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="36"/>
-    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="32"/>
-    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="29"/>
+    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:M88" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:M88" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:M88" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="stat" dataDxfId="17"/>
-    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="disp" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="disp2" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{790E276A-478E-4C37-8E23-268EBECBD586}" name="dfminput" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{D4ABD328-708F-41CD-A15C-D1F52F9E510D}" name="nowcast" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="stat" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="disp" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="disp2" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{790E276A-478E-4C37-8E23-268EBECBD586}" name="dfminput" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{D4ABD328-708F-41CD-A15C-D1F52F9E510D}" name="nowcast" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2203,8 +2160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE13241-3AD3-4AF9-83CF-1259D998F1D6}">
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4603,7 +4560,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>353</v>
@@ -4647,10 +4604,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>380</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>381</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>337</v>
@@ -4662,7 +4619,7 @@
         <v>178</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>339</v>
@@ -4683,7 +4640,7 @@
         <v>311</v>
       </c>
       <c r="M56" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" s="6" t="s">
         <v>170</v>
@@ -5378,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>370</v>
+        <v>29</v>
       </c>
       <c r="K72" s="6" t="s">
         <v>30</v>
@@ -5510,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K75" s="6" t="s">
         <v>30</v>
@@ -5926,7 +5883,7 @@
         <v>68</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>184</v>
@@ -5959,7 +5916,7 @@
         <v>311</v>
       </c>
       <c r="M85" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85" s="6" t="s">
         <v>170</v>
@@ -5967,7 +5924,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>108</v>
@@ -5982,7 +5939,7 @@
         <v>178</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>111</v>
@@ -6102,7 +6059,7 @@
         <v>254</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>181</v>
@@ -6583,10 +6540,10 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>337</v>
@@ -6598,10 +6555,10 @@
         <v>178</v>
       </c>
       <c r="F100" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>44</v>
@@ -6627,20 +6584,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N2:N100">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="37" priority="4">
       <formula>$M2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M100">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="35" priority="3">
       <formula>$H2 = "q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9817,17 +9774,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M2:M88">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>$L2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L88">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>$G2 = "q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model-inputs/forecasts.xlsx
+++ b/model-inputs/forecasts.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3856CB-1AE3-49C2-BCD0-7047CCE9AA2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0BB778-DA39-48D2-9DE6-9A552127CF85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="4" r:id="rId1"/>
     <sheet name="params (2)" sheetId="5" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2161,7 +2160,7 @@
   <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M75" sqref="M75"/>
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6614,7 +6613,7 @@
   <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9875,18 +9874,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C702AB-733A-4F06-A26B-F3AA9CF0214F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/model-inputs/forecasts.xlsx
+++ b/model-inputs/forecasts.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0BB778-DA39-48D2-9DE6-9A552127CF85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D23648D-2CF0-4D9A-B428-0058921403BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="4" r:id="rId1"/>
-    <sheet name="params (2)" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="360">
   <si>
     <t>gdp</t>
   </si>
@@ -191,21 +190,12 @@
     <t>UNRATE</t>
   </si>
   <si>
-    <t>wei</t>
-  </si>
-  <si>
-    <t>WEI</t>
-  </si>
-  <si>
     <t>spy</t>
   </si>
   <si>
     <t>vix</t>
   </si>
   <si>
-    <t>VIXCLS</t>
-  </si>
-  <si>
     <t>loansre</t>
   </si>
   <si>
@@ -302,12 +292,6 @@
     <t>Vehicle Sales</t>
   </si>
   <si>
-    <t>Unemployment rate</t>
-  </si>
-  <si>
-    <t>Weekly Economic Index</t>
-  </si>
-  <si>
     <t>S&amp;P 500</t>
   </si>
   <si>
@@ -335,9 +319,6 @@
     <t>CSCICP03USM665S</t>
   </si>
   <si>
-    <t>Industrial Production index</t>
-  </si>
-  <si>
     <t>INDPRO</t>
   </si>
   <si>
@@ -551,33 +532,12 @@
     <t>dfm.m</t>
   </si>
   <si>
-    <t>dns1</t>
-  </si>
-  <si>
-    <t>dns2</t>
-  </si>
-  <si>
-    <t>dns3</t>
-  </si>
-  <si>
-    <t>Dynamic Nelson Siegel Factor 1</t>
-  </si>
-  <si>
-    <t>Dynamic Nelson Siegel Factor 2</t>
-  </si>
-  <si>
-    <t>Dynamic Nelson Siegel Factor 3</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
     <t>fred</t>
   </si>
   <si>
-    <t>dns</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -599,9 +559,6 @@
     <t>sckey</t>
   </si>
   <si>
-    <t>stat</t>
-  </si>
-  <si>
     <t>weeks</t>
   </si>
   <si>
@@ -842,12 +799,6 @@
     <t>GACDISA066MSFRBNY</t>
   </si>
   <si>
-    <t>sny</t>
-  </si>
-  <si>
-    <t>stx</t>
-  </si>
-  <si>
     <t>BACTSAMFRBDAL</t>
   </si>
   <si>
@@ -878,9 +829,6 @@
     <t>CFNAI</t>
   </si>
   <si>
-    <t>Current General Business Activity, Diffusion Index for Texas</t>
-  </si>
-  <si>
     <t>Government Spending</t>
   </si>
   <si>
@@ -965,12 +913,6 @@
     <t>Imports: Imported Services</t>
   </si>
   <si>
-    <t>disp</t>
-  </si>
-  <si>
-    <t>disp2</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -1107,15 +1049,6 @@
   </si>
   <si>
     <t>JTSJOL</t>
-  </si>
-  <si>
-    <t>joltshires</t>
-  </si>
-  <si>
-    <t>Hires: Total Nonfarm</t>
-  </si>
-  <si>
-    <t>JTSHIL</t>
   </si>
   <si>
     <t>oil</t>
@@ -1249,251 +1182,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <color theme="9"/>
@@ -1503,6 +1192,13 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1776,32 +1472,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1816,45 +1486,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N100" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A1:N100" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N99" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:N99" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="29"/>
-    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="18"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:M88" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M88" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="stat" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="disp" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="disp2" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{790E276A-478E-4C37-8E23-268EBECBD586}" name="dfminput" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{D4ABD328-708F-41CD-A15C-D1F52F9E510D}" name="nowcast" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2157,9 +1805,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE13241-3AD3-4AF9-83CF-1259D998F1D6}">
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
@@ -2186,43 +1834,43 @@
         <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>31</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -2230,22 +1878,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>32</v>
@@ -2257,7 +1905,7 @@
         <v>29</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>30</v>
@@ -2266,30 +1914,30 @@
         <v>0</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>32</v>
@@ -2301,7 +1949,7 @@
         <v>29</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>30</v>
@@ -2310,30 +1958,30 @@
         <v>0</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>32</v>
@@ -2345,7 +1993,7 @@
         <v>29</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>30</v>
@@ -2354,30 +2002,30 @@
         <v>0</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>32</v>
@@ -2389,7 +2037,7 @@
         <v>29</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>30</v>
@@ -2398,30 +2046,30 @@
         <v>0</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>32</v>
@@ -2433,7 +2081,7 @@
         <v>29</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>30</v>
@@ -2442,30 +2090,30 @@
         <v>0</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>32</v>
@@ -2477,7 +2125,7 @@
         <v>29</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>30</v>
@@ -2486,30 +2134,30 @@
         <v>0</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>32</v>
@@ -2521,7 +2169,7 @@
         <v>29</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>30</v>
@@ -2530,30 +2178,30 @@
         <v>0</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>32</v>
@@ -2565,7 +2213,7 @@
         <v>29</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>30</v>
@@ -2574,30 +2222,30 @@
         <v>0</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>32</v>
@@ -2609,7 +2257,7 @@
         <v>29</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>30</v>
@@ -2618,30 +2266,30 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>32</v>
@@ -2653,7 +2301,7 @@
         <v>29</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>30</v>
@@ -2662,30 +2310,30 @@
         <v>0</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>32</v>
@@ -2697,7 +2345,7 @@
         <v>29</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>30</v>
@@ -2706,30 +2354,30 @@
         <v>0</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>32</v>
@@ -2741,7 +2389,7 @@
         <v>29</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>30</v>
@@ -2750,30 +2398,30 @@
         <v>0</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>32</v>
@@ -2785,7 +2433,7 @@
         <v>29</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>30</v>
@@ -2794,30 +2442,30 @@
         <v>0</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>32</v>
@@ -2829,7 +2477,7 @@
         <v>29</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>30</v>
@@ -2838,30 +2486,30 @@
         <v>0</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>32</v>
@@ -2873,7 +2521,7 @@
         <v>29</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>30</v>
@@ -2882,30 +2530,30 @@
         <v>0</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>32</v>
@@ -2917,7 +2565,7 @@
         <v>29</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>30</v>
@@ -2926,30 +2574,30 @@
         <v>0</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>32</v>
@@ -2961,7 +2609,7 @@
         <v>29</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>30</v>
@@ -2970,30 +2618,30 @@
         <v>0</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>32</v>
@@ -3005,7 +2653,7 @@
         <v>29</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>30</v>
@@ -3014,30 +2662,30 @@
         <v>0</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>32</v>
@@ -3049,7 +2697,7 @@
         <v>29</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>30</v>
@@ -3058,30 +2706,30 @@
         <v>0</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>32</v>
@@ -3093,7 +2741,7 @@
         <v>29</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>30</v>
@@ -3102,30 +2750,30 @@
         <v>0</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>32</v>
@@ -3137,7 +2785,7 @@
         <v>29</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>30</v>
@@ -3146,30 +2794,30 @@
         <v>0</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>32</v>
@@ -3181,7 +2829,7 @@
         <v>29</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>30</v>
@@ -3190,30 +2838,30 @@
         <v>0</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>32</v>
@@ -3225,7 +2873,7 @@
         <v>29</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>30</v>
@@ -3234,30 +2882,30 @@
         <v>0</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>32</v>
@@ -3269,7 +2917,7 @@
         <v>29</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>30</v>
@@ -3278,30 +2926,30 @@
         <v>0</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>32</v>
@@ -3313,7 +2961,7 @@
         <v>29</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>30</v>
@@ -3322,30 +2970,30 @@
         <v>0</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>32</v>
@@ -3357,7 +3005,7 @@
         <v>29</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>30</v>
@@ -3366,30 +3014,30 @@
         <v>0</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>32</v>
@@ -3401,7 +3049,7 @@
         <v>29</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>30</v>
@@ -3410,30 +3058,30 @@
         <v>0</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>32</v>
@@ -3445,7 +3093,7 @@
         <v>29</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>30</v>
@@ -3454,30 +3102,30 @@
         <v>0</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>32</v>
@@ -3498,30 +3146,30 @@
         <v>0</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>32</v>
@@ -3542,30 +3190,30 @@
         <v>0</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>32</v>
@@ -3577,7 +3225,7 @@
         <v>29</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>30</v>
@@ -3586,30 +3234,30 @@
         <v>0</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>32</v>
@@ -3621,7 +3269,7 @@
         <v>29</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>30</v>
@@ -3630,30 +3278,30 @@
         <v>0</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>32</v>
@@ -3665,7 +3313,7 @@
         <v>29</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>30</v>
@@ -3674,30 +3322,30 @@
         <v>0</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E35" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="G35" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>32</v>
@@ -3709,7 +3357,7 @@
         <v>29</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>30</v>
@@ -3718,30 +3366,30 @@
         <v>0</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>32</v>
@@ -3753,7 +3401,7 @@
         <v>29</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>30</v>
@@ -3762,30 +3410,30 @@
         <v>0</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>32</v>
@@ -3797,7 +3445,7 @@
         <v>29</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>30</v>
@@ -3806,30 +3454,30 @@
         <v>0</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>32</v>
@@ -3841,7 +3489,7 @@
         <v>29</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>30</v>
@@ -3850,30 +3498,30 @@
         <v>0</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>32</v>
@@ -3885,7 +3533,7 @@
         <v>29</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>30</v>
@@ -3894,30 +3542,30 @@
         <v>0</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>32</v>
@@ -3929,7 +3577,7 @@
         <v>29</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>30</v>
@@ -3938,30 +3586,30 @@
         <v>0</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>44</v>
@@ -3973,7 +3621,7 @@
         <v>29</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>30</v>
@@ -3982,30 +3630,30 @@
         <v>1</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>44</v>
@@ -4017,7 +3665,7 @@
         <v>29</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>30</v>
@@ -4026,30 +3674,30 @@
         <v>0</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>44</v>
@@ -4061,7 +3709,7 @@
         <v>29</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>30</v>
@@ -4070,30 +3718,30 @@
         <v>0</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>44</v>
@@ -4105,7 +3753,7 @@
         <v>29</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L44" s="6" t="s">
         <v>30</v>
@@ -4114,30 +3762,30 @@
         <v>0</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>44</v>
@@ -4149,7 +3797,7 @@
         <v>29</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L45" s="6" t="s">
         <v>30</v>
@@ -4158,30 +3806,30 @@
         <v>0</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>44</v>
@@ -4193,39 +3841,39 @@
         <v>29</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M46" s="5" t="b">
         <v>0</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>44</v>
@@ -4237,39 +3885,39 @@
         <v>29</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M47" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>44</v>
@@ -4281,39 +3929,39 @@
         <v>29</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M48" s="5" t="b">
         <v>0</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>44</v>
@@ -4325,39 +3973,39 @@
         <v>29</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M49" s="5" t="b">
         <v>0</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>44</v>
@@ -4372,13 +4020,13 @@
         <v>30</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M50" s="5" t="b">
         <v>0</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -4386,22 +4034,22 @@
         <v>45</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>44</v>
@@ -4416,36 +4064,36 @@
         <v>30</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M51" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>44</v>
@@ -4460,36 +4108,36 @@
         <v>30</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M52" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>44</v>
@@ -4504,36 +4152,36 @@
         <v>30</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M53" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>44</v>
@@ -4548,36 +4196,36 @@
         <v>30</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M54" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>44</v>
@@ -4592,36 +4240,36 @@
         <v>30</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M55" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>44</v>
@@ -4636,36 +4284,36 @@
         <v>30</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M56" s="5" t="b">
         <v>0</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>44</v>
@@ -4680,36 +4328,36 @@
         <v>30</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M57" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>44</v>
@@ -4724,13 +4372,13 @@
         <v>30</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M58" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -4738,22 +4386,22 @@
         <v>16</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>42</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>44</v>
@@ -4768,13 +4416,13 @@
         <v>30</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M59" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -4782,22 +4430,22 @@
         <v>17</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>44</v>
@@ -4812,13 +4460,13 @@
         <v>30</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M60" s="5" t="b">
         <v>0</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -4826,22 +4474,22 @@
         <v>18</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>44</v>
@@ -4856,13 +4504,13 @@
         <v>30</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M61" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -4870,22 +4518,22 @@
         <v>19</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>44</v>
@@ -4900,13 +4548,13 @@
         <v>30</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M62" s="5" t="b">
         <v>0</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -4914,22 +4562,22 @@
         <v>20</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>44</v>
@@ -4944,13 +4592,13 @@
         <v>30</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M63" s="5" t="b">
         <v>0</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -4958,22 +4606,22 @@
         <v>21</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>44</v>
@@ -4988,13 +4636,13 @@
         <v>30</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M64" s="5" t="b">
         <v>0</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -5002,22 +4650,22 @@
         <v>22</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>44</v>
@@ -5032,13 +4680,13 @@
         <v>30</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M65" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -5046,22 +4694,22 @@
         <v>23</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>38</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>44</v>
@@ -5076,13 +4724,13 @@
         <v>30</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M66" s="5" t="b">
         <v>0</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -5090,22 +4738,22 @@
         <v>24</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>44</v>
@@ -5120,13 +4768,13 @@
         <v>30</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M67" s="5" t="b">
         <v>0</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -5134,22 +4782,22 @@
         <v>25</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>44</v>
@@ -5164,13 +4812,13 @@
         <v>30</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M68" s="5" t="b">
         <v>0</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -5178,22 +4826,22 @@
         <v>26</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>44</v>
@@ -5208,13 +4856,13 @@
         <v>30</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M69" s="5" t="b">
         <v>0</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -5222,22 +4870,22 @@
         <v>27</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>44</v>
@@ -5252,13 +4900,13 @@
         <v>30</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M70" s="5" t="b">
         <v>0</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -5266,22 +4914,22 @@
         <v>48</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>44</v>
@@ -5296,13 +4944,13 @@
         <v>30</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M71" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
@@ -5310,22 +4958,22 @@
         <v>49</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>44</v>
@@ -5340,36 +4988,36 @@
         <v>30</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M72" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>44</v>
@@ -5384,36 +5032,36 @@
         <v>30</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M73" s="5" t="b">
         <v>0</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>44</v>
@@ -5428,36 +5076,36 @@
         <v>30</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M74" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>357</v>
+        <v>51</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>358</v>
+        <v>85</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>359</v>
+        <v>299</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>344</v>
+        <v>104</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>44</v>
@@ -5472,36 +5120,36 @@
         <v>30</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M75" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>44</v>
@@ -5510,42 +5158,42 @@
         <v>0</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K76" s="6" t="s">
         <v>30</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M76" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>54</v>
+        <v>338</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>73</v>
+        <v>339</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>275</v>
+        <v>166</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>110</v>
+        <v>341</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>44</v>
@@ -5560,36 +5208,36 @@
         <v>30</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M77" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>360</v>
+        <v>53</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>361</v>
+        <v>86</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>261</v>
+        <v>169</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>362</v>
+        <v>54</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>363</v>
+        <v>294</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>44</v>
@@ -5598,42 +5246,42 @@
         <v>0</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M78" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="G79" s="7" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>44</v>
@@ -5645,127 +5293,127 @@
         <v>29</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M79" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N79" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="G80" s="7" t="s">
-        <v>313</v>
+        <v>206</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>44</v>
       </c>
       <c r="I80" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" s="6" t="s">
         <v>29</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M80" s="5" t="b">
-        <v>1</v>
+        <v>292</v>
+      </c>
+      <c r="M80" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="G81" s="7" t="s">
-        <v>220</v>
+        <v>104</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>44</v>
       </c>
       <c r="I81" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="M81" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J81" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="L81" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M81" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="N81" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F82" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="G82" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>44</v>
@@ -5780,36 +5428,36 @@
         <v>30</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M82" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="G83" s="7" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>44</v>
@@ -5824,36 +5472,36 @@
         <v>30</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M83" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>106</v>
+        <v>349</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>278</v>
+        <v>171</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>188</v>
+        <v>105</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>44</v>
@@ -5862,42 +5510,42 @@
         <v>0</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M84" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>68</v>
+        <v>348</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>371</v>
+        <v>102</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>107</v>
+        <v>350</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>44</v>
@@ -5909,39 +5557,39 @@
         <v>29</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M85" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>370</v>
+        <v>66</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>184</v>
+        <v>262</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>372</v>
+        <v>67</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>44</v>
@@ -5950,42 +5598,42 @@
         <v>0</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M86" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>278</v>
+        <v>171</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>44</v>
@@ -6000,36 +5648,36 @@
         <v>30</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M87" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>97</v>
+        <v>351</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>44</v>
@@ -6038,42 +5686,42 @@
         <v>0</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M88" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>254</v>
+        <v>106</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>373</v>
+        <v>108</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>44</v>
@@ -6085,83 +5733,83 @@
         <v>29</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M89" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>114</v>
+        <v>242</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>113</v>
+        <v>248</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I90" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M90" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>32</v>
@@ -6176,36 +5824,36 @@
         <v>30</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M91" s="5" t="b">
         <v>0</v>
       </c>
       <c r="N91" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>32</v>
@@ -6220,39 +5868,39 @@
         <v>30</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M92" s="5" t="b">
         <v>0</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I93" s="6" t="b">
         <v>0</v>
@@ -6264,36 +5912,36 @@
         <v>30</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M93" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>44</v>
@@ -6308,36 +5956,36 @@
         <v>30</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M94" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>44</v>
@@ -6352,36 +6000,36 @@
         <v>30</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M95" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N95" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>322</v>
+        <v>260</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>323</v>
+        <v>261</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>324</v>
+        <v>263</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>44</v>
@@ -6396,36 +6044,36 @@
         <v>30</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M96" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>276</v>
+        <v>342</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>279</v>
+        <v>344</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>44</v>
@@ -6440,36 +6088,36 @@
         <v>30</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M97" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N97" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>44</v>
@@ -6484,36 +6132,36 @@
         <v>30</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M98" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>105</v>
+        <v>355</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>44</v>
@@ -6528,75 +6176,31 @@
         <v>30</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M99" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N99" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I100" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K100" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L100" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M100" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="N100" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N2:N100">
-    <cfRule type="expression" dxfId="37" priority="4">
+  <conditionalFormatting sqref="N2:N99">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$M2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M100">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+  <conditionalFormatting sqref="M2:M99">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$H2 = "q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6609,3193 +6213,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401B50CF-603C-40CA-9342-7B13AD6F1231}">
-  <dimension ref="A1:M88"/>
-  <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="6" customWidth="1"/>
-    <col min="10" max="11" width="9.28515625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M40" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L41" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L42" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L43" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L44" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L45" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L47" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L51" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L52" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L54" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M56" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M57" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L58" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M58" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M59" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M60" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M61" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M62" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M63" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K64" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L64" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M64" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L65" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M65" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L66" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M66" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K67" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L67" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M67" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L68" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M68" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K69" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L69" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M69" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K70" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L70" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M70" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H71" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J71" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K71" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K72" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L72" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M72" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K73" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L73" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M73" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J74" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K74" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L74" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M74" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J75" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L75" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M75" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J76" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K76" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L76" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M76" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J77" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L77" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M77" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J78" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K78" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L78" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M78" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J79" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K79" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M79" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J80" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M80" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J81" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M81" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J82" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K82" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M82" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J83" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L83" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M83" s="6"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J84" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K84" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L84" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M84" s="6"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J85" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K85" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L85" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M85" s="6"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J86" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K86" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M86" s="6"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J87" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M87" s="6"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J88" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M88" s="6"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="M2:M88">
-    <cfRule type="expression" dxfId="17" priority="3">
-      <formula>$L2=TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L88">
-    <cfRule type="expression" dxfId="16" priority="2">
-      <formula>$G2 = "q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
-      <formula>"calc"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E828C45D-CF7B-424F-B36C-220BE51A990F}">
   <dimension ref="B1:P3"/>
   <sheetViews>
